--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_12.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_12.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N191"/>
+  <dimension ref="A1:N192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1017122268676758</v>
+        <v>0.0006020069122314453</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.004754781723022461</v>
+        <v>0.0006616115570068359</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005019903182983398</v>
+        <v>0.003393173217773438</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 0), (2, 0), (2, 2), (1, 3), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[3, 0], [2, 0], [2, 2], [1, 3], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[(3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 0), (1, 1), (0, 2), (0, 0), (0, 1), (1, 2), (2, 0), (3, 0), (2, 2), (0, 3), (3, 1)]</t>
+          <t>[[2, 1], [1, 0], [1, 1], [0, 2], [0, 0], [0, 1], [1, 2], [2, 0], [3, 0], [2, 2], [0, 3], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 1), (1, 1), (0, 0), (0, 3), (2, 0), (3, 0), (1, 2), (1, 0), (1, 3), (2, 1), (2, 2)]</t>
+          <t>[[0, 2], [0, 1], [1, 1], [0, 0], [0, 3], [2, 0], [3, 0], [1, 2], [1, 0], [1, 3], [2, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -1797,110 +1797,120 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>23</v>
+        <v>0.9985968303032804</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>150</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>4</v>
+        <v>150</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.125079870223999</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.01978707313537598</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I191" t="inlineStr">
+      <c r="I192" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J191" t="inlineStr">
+      <c r="J192" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K191" t="inlineStr">
+      <c r="K192" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L191" t="inlineStr">
+      <c r="L192" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M191" t="inlineStr">
+      <c r="M192" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N191" t="inlineStr">
+      <c r="N192" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_12.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_12.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0006020069122314453</v>
+        <v>0.0002889633178710938</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0006616115570068359</v>
+        <v>0.000164031982421875</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003393173217773438</v>
+        <v>0.01983404159545898</v>
       </c>
     </row>
     <row r="8">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.01978707313537598</v>
+        <v>0.03639817237854004</v>
       </c>
     </row>
     <row r="192">
